--- a/mh6151 dm assignment/MH6151 Assignment 1_Q2_Calculations.xlsx
+++ b/mh6151 dm assignment/MH6151 Assignment 1_Q2_Calculations.xlsx
@@ -5,15 +5,15 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lifengzhi/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lifengzhi/Desktop/MSA/msa_mh8101_or1_lp/mh6151 dm assignment/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FCB616E4-3B55-A140-9F34-B60251140B61}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56491528-63A2-E540-95F4-81AB3EADF11F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-38400" yWindow="460" windowWidth="38400" windowHeight="21060" xr2:uid="{69399673-1F28-B245-B503-D20D2F471317}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="13" r:id="rId1"/>
+    <sheet name="Question 2" sheetId="13" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="63">
   <si>
     <t>Name </t>
   </si>
@@ -180,18 +180,6 @@
     <t>P(HL=no|C0) =</t>
   </si>
   <si>
-    <t>Give Birth (GB)</t>
-  </si>
-  <si>
-    <t>Can Fly (CF)</t>
-  </si>
-  <si>
-    <t>Live in Water (LW)</t>
-  </si>
-  <si>
-    <t>Have Legs (HL)</t>
-  </si>
-  <si>
     <t>sometimes (yn)</t>
   </si>
   <si>
@@ -199,30 +187,89 @@
   </si>
   <si>
     <t>P(LW=yn|C0) =</t>
+  </si>
+  <si>
+    <t>Give Birth  (GB)</t>
+  </si>
+  <si>
+    <t>Can Fly  (CF)</t>
+  </si>
+  <si>
+    <t>Live in Water  (LW)</t>
+  </si>
+  <si>
+    <t>Have Legs  (HL)</t>
+  </si>
+  <si>
+    <t>P(C1|GB=yes,CF=no,LW=yes,HL=no) =</t>
+  </si>
+  <si>
+    <t>P(GB=yes,CF=no,LW=yes,HL=no|C1) * P(C1) =</t>
+  </si>
+  <si>
+    <t>P(C0|GB=yes,CF=no,LW=yes,HL=no) =</t>
+  </si>
+  <si>
+    <t>P(GB=yes,CF=no,LW=yes,HL=no|C0) * P(C0) =</t>
+  </si>
+  <si>
+    <t>P(GB=yes|C) * P(CF=no|C1) * P(LW=yes|C1) * P(HL=no|C1) * P(C1) =</t>
+  </si>
+  <si>
+    <t>P(GB=yes|C0) * P(CF=no|C0) * P(LW=yes|C0) * P(HL=no|C0) * P(C0) =</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="16"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>Conclusion</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="16"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: P(C1|GB=yes,CF=no,LW=yes,HL=no) = 0.021 &gt; P(C0|GB=yes,CF=no,LW=yes,HL=no) = 0.003. Hence, the testing sample is of class mammals.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="16"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>[NOTE] There is NO need to use Laplace Smoothing, although there is one conditional probability of zero, however, it's not used.</t>
+    </r>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.000"/>
+  </numFmts>
+  <fonts count="11">
     <font>
       <sz val="12"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="14"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="14"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -245,7 +292,56 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF00B050"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF00B0F0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color rgb="FF7030A0"/>
+      <name val="Calibri (Body)"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri (Body)"/>
+    </font>
+    <font>
+      <sz val="16"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
       <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -272,35 +368,59 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -616,68 +736,68 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{06BFC993-FFE2-4341-8254-D1F1F2D20450}">
-  <dimension ref="A1:J28"/>
+  <dimension ref="A1:I35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J13" sqref="J13"/>
+      <selection activeCell="K33" sqref="K33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="19" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="1" width="15.5" style="2" customWidth="1"/>
-    <col min="2" max="2" width="16.1640625" style="2" customWidth="1"/>
-    <col min="3" max="3" width="13.83203125" style="2" customWidth="1"/>
-    <col min="4" max="4" width="19.83203125" style="2" customWidth="1"/>
-    <col min="5" max="5" width="16.33203125" style="2" customWidth="1"/>
-    <col min="6" max="6" width="16.83203125" style="2" customWidth="1"/>
-    <col min="7" max="7" width="20.1640625" style="2" customWidth="1"/>
-    <col min="8" max="8" width="10.83203125" style="2"/>
-    <col min="9" max="9" width="21.6640625" style="8" customWidth="1"/>
-    <col min="10" max="10" width="13.5" style="6" bestFit="1" customWidth="1"/>
-    <col min="11" max="16384" width="10.83203125" style="2"/>
+    <col min="1" max="1" width="13.1640625" style="2" customWidth="1"/>
+    <col min="2" max="2" width="10.1640625" style="2" customWidth="1"/>
+    <col min="3" max="3" width="7.83203125" style="2" customWidth="1"/>
+    <col min="4" max="4" width="15.5" style="2" customWidth="1"/>
+    <col min="5" max="5" width="11.1640625" style="2" customWidth="1"/>
+    <col min="6" max="6" width="14.6640625" style="2" customWidth="1"/>
+    <col min="7" max="7" width="18.33203125" style="7" customWidth="1"/>
+    <col min="8" max="8" width="21.6640625" style="3" customWidth="1"/>
+    <col min="9" max="9" width="13.5" style="9" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.83203125" style="2"/>
+    <col min="11" max="11" width="24.33203125" style="2" customWidth="1"/>
+    <col min="12" max="16384" width="10.83203125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="21" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
+    <row r="1" spans="1:9" ht="19">
+      <c r="A1" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="B1" s="4"/>
-      <c r="C1" s="4"/>
-      <c r="D1" s="4"/>
-      <c r="E1" s="4"/>
-      <c r="F1" s="4"/>
-    </row>
-    <row r="2" spans="1:10" s="3" customFormat="1" ht="41" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="1" t="s">
+      <c r="B1" s="18"/>
+      <c r="C1" s="18"/>
+      <c r="D1" s="18"/>
+      <c r="E1" s="18"/>
+      <c r="F1" s="18"/>
+    </row>
+    <row r="2" spans="1:9" s="6" customFormat="1" ht="41" customHeight="1">
+      <c r="A2" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="E2" s="1" t="s">
+      <c r="B2" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="C2" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="F2" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="G2" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="I2" s="9" t="s">
+      <c r="H2" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="J2" s="7">
-        <f>COUNTIF(G2:G22, "=1") / COUNT(G2:G22)</f>
+      <c r="I2" s="16">
         <v>0.35</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="25" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" ht="17">
       <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
@@ -696,18 +816,17 @@
       <c r="F3" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G3" s="2">
+      <c r="G3" s="7">
         <v>1</v>
       </c>
-      <c r="I3" s="9" t="s">
+      <c r="H3" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="J3" s="7">
-        <f xml:space="preserve"> 1 - J2</f>
+      <c r="I3" s="14">
         <v>0.65</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="20" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" ht="17">
       <c r="A4" s="2" t="s">
         <v>6</v>
       </c>
@@ -726,11 +845,11 @@
       <c r="F4" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="G4" s="2">
+      <c r="G4" s="7">
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:10" ht="22" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" ht="17">
       <c r="A5" s="2" t="s">
         <v>8</v>
       </c>
@@ -749,14 +868,17 @@
       <c r="F5" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="G5" s="2">
+      <c r="G5" s="7">
         <v>0</v>
       </c>
-      <c r="I5" s="10" t="s">
+      <c r="H5" s="11" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="6" spans="1:10" ht="22" x14ac:dyDescent="0.25">
+      <c r="I5" s="12">
+        <v>0.85699999999999998</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="17">
       <c r="A6" s="2" t="s">
         <v>9</v>
       </c>
@@ -775,14 +897,17 @@
       <c r="F6" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G6" s="2">
+      <c r="G6" s="7">
         <v>1</v>
       </c>
-      <c r="I6" s="10" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" ht="22" x14ac:dyDescent="0.25">
+      <c r="H6" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="I6" s="9">
+        <v>0.14299999999999999</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="17">
       <c r="A7" s="2" t="s">
         <v>10</v>
       </c>
@@ -793,7 +918,7 @@
         <v>4</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>3</v>
@@ -801,14 +926,11 @@
       <c r="F7" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="G7" s="2">
+      <c r="G7" s="7">
         <v>0</v>
       </c>
-      <c r="I7" s="10" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" ht="22" x14ac:dyDescent="0.25">
+    </row>
+    <row r="8" spans="1:9" ht="17">
       <c r="A8" s="2" t="s">
         <v>11</v>
       </c>
@@ -827,14 +949,17 @@
       <c r="F8" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="G8" s="2">
+      <c r="G8" s="7">
         <v>0</v>
       </c>
-      <c r="I8" s="10" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" ht="20" x14ac:dyDescent="0.25">
+      <c r="H8" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="I8" s="14">
+        <v>7.6999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="17">
       <c r="A9" s="2" t="s">
         <v>12</v>
       </c>
@@ -853,11 +978,17 @@
       <c r="F9" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G9" s="2">
+      <c r="G9" s="7">
         <v>1</v>
       </c>
-    </row>
-    <row r="10" spans="1:10" ht="22" x14ac:dyDescent="0.25">
+      <c r="H9" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="I9" s="9">
+        <v>0.92300000000000004</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="17">
       <c r="A10" s="2" t="s">
         <v>13</v>
       </c>
@@ -876,14 +1007,11 @@
       <c r="F10" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="G10" s="2">
+      <c r="G10" s="7">
         <v>0</v>
       </c>
-      <c r="I10" s="10" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" ht="22" x14ac:dyDescent="0.25">
+    </row>
+    <row r="11" spans="1:9" ht="17">
       <c r="A11" s="2" t="s">
         <v>14</v>
       </c>
@@ -902,14 +1030,17 @@
       <c r="F11" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G11" s="2">
+      <c r="G11" s="7">
         <v>1</v>
       </c>
-      <c r="I11" s="10" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" ht="16" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H11" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="I11" s="9">
+        <v>0.14299999999999999</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" ht="16" customHeight="1">
       <c r="A12" s="2" t="s">
         <v>15</v>
       </c>
@@ -928,14 +1059,17 @@
       <c r="F12" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="G12" s="2">
+      <c r="G12" s="7">
         <v>0</v>
       </c>
-      <c r="I12" s="10" t="s">
+      <c r="H12" s="11" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="13" spans="1:10" ht="22" x14ac:dyDescent="0.25">
+      <c r="I12" s="12">
+        <v>0.85699999999999998</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" ht="17">
       <c r="A13" s="2" t="s">
         <v>16</v>
       </c>
@@ -946,7 +1080,7 @@
         <v>4</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="E13" s="2" t="s">
         <v>3</v>
@@ -954,14 +1088,11 @@
       <c r="F13" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="G13" s="2">
+      <c r="G13" s="7">
         <v>0</v>
       </c>
-      <c r="I13" s="10" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" ht="20" x14ac:dyDescent="0.25">
+    </row>
+    <row r="14" spans="1:9" ht="17">
       <c r="A14" s="2" t="s">
         <v>17</v>
       </c>
@@ -972,7 +1103,7 @@
         <v>4</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="E14" s="2" t="s">
         <v>3</v>
@@ -980,11 +1111,17 @@
       <c r="F14" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="G14" s="2">
+      <c r="G14" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:10" ht="22" x14ac:dyDescent="0.25">
+      <c r="H14" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="I14" s="9">
+        <v>0.23100000000000001</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" ht="17">
       <c r="A15" s="2" t="s">
         <v>18</v>
       </c>
@@ -1003,14 +1140,17 @@
       <c r="F15" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G15" s="2">
+      <c r="G15" s="7">
         <v>1</v>
       </c>
-      <c r="I15" s="10" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" ht="22" x14ac:dyDescent="0.25">
+      <c r="H15" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="I15" s="14">
+        <v>0.76900000000000002</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" ht="17">
       <c r="A16" s="2" t="s">
         <v>19</v>
       </c>
@@ -1029,14 +1169,11 @@
       <c r="F16" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="G16" s="2">
+      <c r="G16" s="7">
         <v>0</v>
       </c>
-      <c r="I16" s="10" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" ht="17" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="17" spans="1:9" ht="17" customHeight="1">
       <c r="A17" s="2" t="s">
         <v>20</v>
       </c>
@@ -1047,7 +1184,7 @@
         <v>4</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="E17" s="2" t="s">
         <v>3</v>
@@ -1055,14 +1192,17 @@
       <c r="F17" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="G17" s="2">
+      <c r="G17" s="7">
         <v>0</v>
       </c>
-      <c r="I17" s="10" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H17" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="I17" s="12">
+        <v>0.28599999999999998</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" ht="18" customHeight="1">
       <c r="A18" s="2" t="s">
         <v>21</v>
       </c>
@@ -1081,14 +1221,17 @@
       <c r="F18" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="G18" s="2">
+      <c r="G18" s="7">
         <v>0</v>
       </c>
-      <c r="I18" s="10" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10" ht="22" x14ac:dyDescent="0.25">
+      <c r="H18" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="I18" s="9">
+        <v>0.71399999999999997</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" ht="17">
       <c r="A19" s="2" t="s">
         <v>22</v>
       </c>
@@ -1107,14 +1250,17 @@
       <c r="F19" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G19" s="2">
+      <c r="G19" s="7">
         <v>1</v>
       </c>
-      <c r="I19" s="10" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10" ht="22" x14ac:dyDescent="0.25">
+      <c r="H19" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="I19" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" ht="17">
       <c r="A20" s="2" t="s">
         <v>23</v>
       </c>
@@ -1133,14 +1279,11 @@
       <c r="F20" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="G20" s="2">
+      <c r="G20" s="7">
         <v>0</v>
       </c>
-      <c r="I20" s="10" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10" ht="20" x14ac:dyDescent="0.25">
+    </row>
+    <row r="21" spans="1:9" ht="17">
       <c r="A21" s="2" t="s">
         <v>24</v>
       </c>
@@ -1159,11 +1302,17 @@
       <c r="F21" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G21" s="2">
+      <c r="G21" s="7">
         <v>1</v>
       </c>
-    </row>
-    <row r="22" spans="1:10" ht="22" x14ac:dyDescent="0.25">
+      <c r="H21" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="I21" s="14">
+        <v>0.23100000000000001</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" ht="17">
       <c r="A22" s="2" t="s">
         <v>25</v>
       </c>
@@ -1182,61 +1331,166 @@
       <c r="F22" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="G22" s="2">
+      <c r="G22" s="7">
         <v>0</v>
       </c>
-      <c r="I22" s="10" t="s">
+      <c r="H22" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="I22" s="9">
+        <v>0.46200000000000002</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" ht="17">
+      <c r="H23" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="I23" s="9">
+        <v>0.308</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" ht="17">
+      <c r="H25" s="3" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="23" spans="1:10" ht="22" x14ac:dyDescent="0.25">
-      <c r="I23" s="10" t="s">
+      <c r="I25" s="9">
+        <v>0.71399999999999997</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" ht="17">
+      <c r="H26" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="I26" s="12">
+        <v>0.28599999999999998</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" ht="19">
+      <c r="A27" s="18" t="s">
+        <v>28</v>
+      </c>
+      <c r="B27" s="18"/>
+      <c r="C27" s="18"/>
+      <c r="D27" s="18"/>
+      <c r="E27" s="18"/>
+      <c r="F27" s="18"/>
+    </row>
+    <row r="28" spans="1:9" ht="17">
+      <c r="B28" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C28" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="D28" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="E28" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="F28" s="4"/>
+      <c r="G28" s="8"/>
+      <c r="H28" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="J23" s="2"/>
-    </row>
-    <row r="24" spans="1:10" ht="22" x14ac:dyDescent="0.25">
-      <c r="I24" s="10" t="s">
-        <v>47</v>
-      </c>
-      <c r="J24" s="2"/>
-    </row>
-    <row r="25" spans="1:10" ht="22" x14ac:dyDescent="0.25">
-      <c r="I25" s="10" t="s">
+      <c r="I28" s="9">
+        <v>0.69199999999999995</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" ht="17">
+      <c r="H29" s="13" t="s">
         <v>48</v>
       </c>
-      <c r="J25" s="2"/>
-    </row>
-    <row r="27" spans="1:10" ht="21" x14ac:dyDescent="0.25">
-      <c r="A27" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="B27" s="4"/>
-      <c r="C27" s="4"/>
-      <c r="D27" s="4"/>
-      <c r="E27" s="4"/>
-      <c r="F27" s="4"/>
-    </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B28" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="C28" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="D28" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="E28" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="F28" s="5"/>
-      <c r="G28" s="5"/>
+      <c r="I29" s="14">
+        <v>0.308</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" s="5" customFormat="1" ht="54" customHeight="1">
+      <c r="A31" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="B31" s="10"/>
+      <c r="C31" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="D31" s="10"/>
+      <c r="E31" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="F31" s="10"/>
+      <c r="G31" s="10"/>
+      <c r="H31" s="1">
+        <v>2.1000000000000001E-2</v>
+      </c>
+      <c r="I31" s="1"/>
+    </row>
+    <row r="32" spans="1:9" s="5" customFormat="1" ht="54" customHeight="1">
+      <c r="A32" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="B32" s="10"/>
+      <c r="C32" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="D32" s="10"/>
+      <c r="E32" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="F32" s="10"/>
+      <c r="G32" s="10"/>
+      <c r="H32" s="1">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="I32" s="1"/>
+    </row>
+    <row r="33" spans="1:9" ht="41" customHeight="1">
+      <c r="A33" s="17" t="s">
+        <v>62</v>
+      </c>
+      <c r="B33" s="17"/>
+      <c r="C33" s="17"/>
+      <c r="D33" s="17"/>
+      <c r="E33" s="17"/>
+      <c r="F33" s="17"/>
+      <c r="G33" s="17"/>
+      <c r="H33" s="17"/>
+      <c r="I33" s="17"/>
+    </row>
+    <row r="34" spans="1:9">
+      <c r="A34" s="17"/>
+      <c r="B34" s="17"/>
+      <c r="C34" s="17"/>
+      <c r="D34" s="17"/>
+      <c r="E34" s="17"/>
+      <c r="F34" s="17"/>
+      <c r="G34" s="17"/>
+      <c r="H34" s="17"/>
+      <c r="I34" s="17"/>
+    </row>
+    <row r="35" spans="1:9">
+      <c r="A35" s="17"/>
+      <c r="B35" s="17"/>
+      <c r="C35" s="17"/>
+      <c r="D35" s="17"/>
+      <c r="E35" s="17"/>
+      <c r="F35" s="17"/>
+      <c r="G35" s="17"/>
+      <c r="H35" s="17"/>
+      <c r="I35" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="11">
+    <mergeCell ref="A33:I35"/>
+    <mergeCell ref="H31:I31"/>
+    <mergeCell ref="A32:B32"/>
+    <mergeCell ref="C32:D32"/>
+    <mergeCell ref="E32:G32"/>
+    <mergeCell ref="H32:I32"/>
     <mergeCell ref="A27:F27"/>
     <mergeCell ref="A1:F1"/>
+    <mergeCell ref="A31:B31"/>
+    <mergeCell ref="C31:D31"/>
+    <mergeCell ref="E31:G31"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
